--- a/excel_convert/test.xlsx
+++ b/excel_convert/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinit_rzmao9z\Documents\works\local\excel_convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F5200-8920-4495-A961-B73298C6A4A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA03D2-20A3-4095-82F9-77E2E4E1D85A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16900" windowHeight="7150" xr2:uid="{932A9720-39D0-4523-9B0F-41BF3D727A84}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -109,6 +109,17 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+タイトル１</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -155,8 +166,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,18 +490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A3F8F6-3E7F-4295-BD68-18899B731880}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -498,10 +516,13 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -517,16 +538,19 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="1">
+        <v>43465.458333333336</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -534,11 +558,14 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="1">
+        <v>43465.458333333336</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>2</v>
       </c>
@@ -548,11 +575,14 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="1">
+        <v>43466.458333333336</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>3</v>
       </c>
@@ -565,11 +595,11 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="1">
+        <v>43465.458333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>4</v>
       </c>
@@ -582,11 +612,14 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="1">
+        <v>43465.458333333336</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>5</v>
       </c>
@@ -599,7 +632,10 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1">
+        <v>43465.458333333336</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
     </row>
